--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H2">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I2">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J2">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>53.62189927478949</v>
+        <v>16.9965980634075</v>
       </c>
       <c r="R2">
-        <v>214.487597099158</v>
+        <v>67.98639225363</v>
       </c>
       <c r="S2">
-        <v>0.03036305685094375</v>
+        <v>0.01496638480706209</v>
       </c>
       <c r="T2">
-        <v>0.0170677517193195</v>
+        <v>0.008231215283669791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H3">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I3">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J3">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>13.16075940623966</v>
+        <v>6.732875306756665</v>
       </c>
       <c r="R3">
-        <v>78.96455643743799</v>
+        <v>40.39725184053999</v>
       </c>
       <c r="S3">
-        <v>0.007452195678587633</v>
+        <v>0.005928645386739502</v>
       </c>
       <c r="T3">
-        <v>0.006283568197546255</v>
+        <v>0.004890956347964708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H4">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I4">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J4">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>20.52769791025716</v>
+        <v>5.520272950416667</v>
       </c>
       <c r="R4">
-        <v>123.166187461543</v>
+        <v>33.1216377025</v>
       </c>
       <c r="S4">
-        <v>0.01162367739855825</v>
+        <v>0.004860886214272713</v>
       </c>
       <c r="T4">
-        <v>0.009800892621483101</v>
+        <v>0.004010086745887519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H5">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I5">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J5">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>4.55903630536175</v>
+        <v>4.498163789775</v>
       </c>
       <c r="R5">
-        <v>18.236145221447</v>
+        <v>17.9926551591</v>
       </c>
       <c r="S5">
-        <v>0.002581525093242956</v>
+        <v>0.00396086616579487</v>
       </c>
       <c r="T5">
-        <v>0.001451132854144571</v>
+        <v>0.00217839795921038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H6">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I6">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J6">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>27.90976548972766</v>
+        <v>3.511410611315</v>
       </c>
       <c r="R6">
-        <v>167.458592938366</v>
+        <v>21.06846366789</v>
       </c>
       <c r="S6">
-        <v>0.0158037258605558</v>
+        <v>0.003091978890627805</v>
       </c>
       <c r="T6">
-        <v>0.0133254403806729</v>
+        <v>0.002550790745001158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8352145</v>
+        <v>0.427285</v>
       </c>
       <c r="H7">
-        <v>1.670429</v>
+        <v>0.8545699999999999</v>
       </c>
       <c r="I7">
-        <v>0.07459944913300412</v>
+        <v>0.04300644491932092</v>
       </c>
       <c r="J7">
-        <v>0.0536415799547362</v>
+        <v>0.03027423303440051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>11.96528905190633</v>
+        <v>11.58101499419666</v>
       </c>
       <c r="R7">
-        <v>71.79173431143799</v>
+        <v>69.48608996517999</v>
       </c>
       <c r="S7">
-        <v>0.006775268251115729</v>
+        <v>0.01019768345482394</v>
       </c>
       <c r="T7">
-        <v>0.005712794181569879</v>
+        <v>0.00841278595266695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.78396</v>
       </c>
       <c r="I8">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J8">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>530.3879050433198</v>
+        <v>328.6198568009401</v>
       </c>
       <c r="R8">
-        <v>3182.327430259919</v>
+        <v>1971.71914080564</v>
       </c>
       <c r="S8">
-        <v>0.3003287524627968</v>
+        <v>0.2893668023316479</v>
       </c>
       <c r="T8">
-        <v>0.2532322390844182</v>
+        <v>0.2387190169814769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.78396</v>
       </c>
       <c r="I9">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J9">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
         <v>130.1764335963466</v>
@@ -1013,10 +1013,10 @@
         <v>1171.58790236712</v>
       </c>
       <c r="S9">
-        <v>0.0737115713429659</v>
+        <v>0.1146270913006045</v>
       </c>
       <c r="T9">
-        <v>0.093228567550766</v>
+        <v>0.1418459184030605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>24.78396</v>
       </c>
       <c r="I10">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J10">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>203.0447044441466</v>
+        <v>106.7314352966667</v>
       </c>
       <c r="R10">
-        <v>1827.40233999732</v>
+        <v>960.5829176700001</v>
       </c>
       <c r="S10">
-        <v>0.1149727627648433</v>
+        <v>0.09398255613863218</v>
       </c>
       <c r="T10">
-        <v>0.1454146992749362</v>
+        <v>0.1162992259342201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>24.78396</v>
       </c>
       <c r="I11">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J11">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>45.09459283838</v>
+        <v>86.96951795579999</v>
       </c>
       <c r="R11">
-        <v>270.56755703028</v>
+        <v>521.8171077347999</v>
       </c>
       <c r="S11">
-        <v>0.0255345242249864</v>
+        <v>0.07658116449864723</v>
       </c>
       <c r="T11">
-        <v>0.02153028869338649</v>
+        <v>0.06317718605281217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>24.78396</v>
       </c>
       <c r="I12">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J12">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>276.0626208424266</v>
+        <v>67.89118904588</v>
       </c>
       <c r="R12">
-        <v>2484.56358758184</v>
+        <v>611.0207014129201</v>
       </c>
       <c r="S12">
-        <v>0.1563186900207394</v>
+        <v>0.05978170787348326</v>
       </c>
       <c r="T12">
-        <v>0.197708002780712</v>
+        <v>0.07397719998651826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.78396</v>
       </c>
       <c r="I13">
-        <v>0.7378822100328354</v>
+        <v>0.831505911840772</v>
       </c>
       <c r="J13">
-        <v>0.7958738575150359</v>
+        <v>0.8780034175728856</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>118.3517309030133</v>
+        <v>223.9125426632266</v>
       </c>
       <c r="R13">
-        <v>1065.16557812712</v>
+        <v>2015.21288396904</v>
       </c>
       <c r="S13">
-        <v>0.06701590921650354</v>
+        <v>0.1971665896977569</v>
       </c>
       <c r="T13">
-        <v>0.08476006013081708</v>
+        <v>0.2439848702147976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H14">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I14">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J14">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>103.504455061935</v>
+        <v>0.6104351753070001</v>
       </c>
       <c r="R14">
-        <v>414.0178202477399</v>
+        <v>3.662611051842001</v>
       </c>
       <c r="S14">
-        <v>0.05860873441402029</v>
+        <v>0.0005375197848021222</v>
       </c>
       <c r="T14">
-        <v>0.03294527729776136</v>
+        <v>0.0004434378567344862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H15">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I15">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J15">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>25.40374826268999</v>
+        <v>0.2418121498706666</v>
       </c>
       <c r="R15">
-        <v>152.42248957614</v>
+        <v>2.176309348836</v>
       </c>
       <c r="S15">
-        <v>0.01438470966450392</v>
+        <v>0.000212928120820774</v>
       </c>
       <c r="T15">
-        <v>0.01212894938313584</v>
+        <v>0.000263489062742197</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H16">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I16">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J16">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>39.623889019465</v>
+        <v>0.1982613681666667</v>
       </c>
       <c r="R16">
-        <v>237.74333411679</v>
+        <v>1.7843523135</v>
       </c>
       <c r="S16">
-        <v>0.02243677324423203</v>
+        <v>0.0001745794021419639</v>
       </c>
       <c r="T16">
-        <v>0.01891831627799294</v>
+        <v>0.0002160342319613017</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H17">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I17">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J17">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>8.8001464844775</v>
+        <v>0.16155217599</v>
       </c>
       <c r="R17">
-        <v>35.20058593791</v>
+        <v>0.9693130559400001</v>
       </c>
       <c r="S17">
-        <v>0.004983026554795081</v>
+        <v>0.0001422550573511546</v>
       </c>
       <c r="T17">
-        <v>0.002801070408211383</v>
+        <v>0.0001173561969717255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H18">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I18">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J18">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>53.87323289532999</v>
+        <v>0.126112798814</v>
       </c>
       <c r="R18">
-        <v>323.23939737198</v>
+        <v>1.135015189326</v>
       </c>
       <c r="S18">
-        <v>0.03050537290300893</v>
+        <v>0.0001110488504290445</v>
       </c>
       <c r="T18">
-        <v>0.02572162612133188</v>
+        <v>0.0001374180047490122</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.612185</v>
+        <v>0.015346</v>
       </c>
       <c r="H19">
-        <v>3.22437</v>
+        <v>0.046038</v>
       </c>
       <c r="I19">
-        <v>0.1439966773810707</v>
+        <v>0.001544582430302723</v>
       </c>
       <c r="J19">
-        <v>0.1035424439821464</v>
+        <v>0.001630954913509403</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>23.09617413269</v>
+        <v>0.4159337587346666</v>
       </c>
       <c r="R19">
-        <v>138.57704479614</v>
+        <v>3.743403828612</v>
       </c>
       <c r="S19">
-        <v>0.01307806060051043</v>
+        <v>0.0003662512147576632</v>
       </c>
       <c r="T19">
-        <v>0.01102720449371298</v>
+        <v>0.0004532195603506806</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H20">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I20">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J20">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>31.28326389906799</v>
+        <v>45.792344011623</v>
       </c>
       <c r="R20">
-        <v>187.6995833944079</v>
+        <v>183.169376046492</v>
       </c>
       <c r="S20">
-        <v>0.01771394771719799</v>
+        <v>0.04032253037570013</v>
       </c>
       <c r="T20">
-        <v>0.0149361078706776</v>
+        <v>0.0221765932510361</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H21">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I21">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J21">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>7.678047871965332</v>
+        <v>18.13975603142266</v>
       </c>
       <c r="R21">
-        <v>69.10243084768798</v>
+        <v>108.838536188536</v>
       </c>
       <c r="S21">
-        <v>0.004347645405957438</v>
+        <v>0.01597299459925388</v>
       </c>
       <c r="T21">
-        <v>0.00549879409747191</v>
+        <v>0.01317724610514969</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H22">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I22">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J22">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>11.97595384818533</v>
+        <v>14.87275495016667</v>
       </c>
       <c r="R22">
-        <v>107.783584633668</v>
+        <v>89.23652970099999</v>
       </c>
       <c r="S22">
-        <v>0.006781307123667848</v>
+        <v>0.01309623095721465</v>
       </c>
       <c r="T22">
-        <v>0.008576829088608066</v>
+        <v>0.01080400154778482</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H23">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I23">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J23">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>2.659762854262</v>
+        <v>12.11898186411</v>
       </c>
       <c r="R23">
-        <v>15.958577125572</v>
+        <v>48.47592745643999</v>
       </c>
       <c r="S23">
-        <v>0.001506073672253426</v>
+        <v>0.01067139114377069</v>
       </c>
       <c r="T23">
-        <v>0.001269896422248387</v>
+        <v>0.005869053817136652</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.487268</v>
+        <v>1.151194</v>
       </c>
       <c r="H24">
-        <v>1.461804</v>
+        <v>2.302388</v>
       </c>
       <c r="I24">
-        <v>0.04352166345308978</v>
+        <v>0.1158682409924353</v>
       </c>
       <c r="J24">
-        <v>0.04694211854808148</v>
+        <v>0.08156503369835977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>16.28268619695733</v>
+        <v>9.460465093045999</v>
       </c>
       <c r="R24">
-        <v>146.544175772616</v>
+        <v>56.762790558276</v>
       </c>
       <c r="S24">
-        <v>0.009219966718275727</v>
+        <v>0.008330429448769286</v>
       </c>
       <c r="T24">
-        <v>0.01166118527050786</v>
+        <v>0.006872356859943277</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.151194</v>
+      </c>
+      <c r="H25">
+        <v>2.302388</v>
+      </c>
+      <c r="I25">
+        <v>0.1158682409924353</v>
+      </c>
+      <c r="J25">
+        <v>0.08156503369835977</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.10372466666666</v>
+      </c>
+      <c r="N25">
+        <v>81.31117399999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2371198892155478</v>
+      </c>
+      <c r="P25">
+        <v>0.2778860142586446</v>
+      </c>
+      <c r="Q25">
+        <v>31.20164521391866</v>
+      </c>
+      <c r="R25">
+        <v>187.2098712835119</v>
+      </c>
+      <c r="S25">
+        <v>0.02747466446772666</v>
+      </c>
+      <c r="T25">
+        <v>0.02266578211730923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.240679</v>
+      </c>
+      <c r="I26">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J26">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>39.77812950000001</v>
+      </c>
+      <c r="N26">
+        <v>79.55625900000001</v>
+      </c>
+      <c r="O26">
+        <v>0.348003301252607</v>
+      </c>
+      <c r="P26">
+        <v>0.2718884826683037</v>
+      </c>
+      <c r="Q26">
+        <v>3.1912534766435</v>
+      </c>
+      <c r="R26">
+        <v>19.147520859861</v>
+      </c>
+      <c r="S26">
+        <v>0.002810063953394804</v>
+      </c>
+      <c r="T26">
+        <v>0.002318219295386407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.240679</v>
+      </c>
+      <c r="I27">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J27">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.75734066666666</v>
+      </c>
+      <c r="N27">
+        <v>47.27202199999999</v>
+      </c>
+      <c r="O27">
+        <v>0.137854812176675</v>
+      </c>
+      <c r="P27">
+        <v>0.1615550868755992</v>
+      </c>
+      <c r="Q27">
+        <v>1.264153664770889</v>
+      </c>
+      <c r="R27">
+        <v>11.377382982938</v>
+      </c>
+      <c r="S27">
+        <v>0.001113152769256333</v>
+      </c>
+      <c r="T27">
+        <v>0.001377476956682072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.240679</v>
+      </c>
+      <c r="I28">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J28">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>12.91941666666667</v>
+      </c>
+      <c r="N28">
+        <v>38.75825</v>
+      </c>
+      <c r="O28">
+        <v>0.1130269247642213</v>
+      </c>
+      <c r="P28">
+        <v>0.1324587394610747</v>
+      </c>
+      <c r="Q28">
+        <v>1.036477427972222</v>
+      </c>
+      <c r="R28">
+        <v>9.32829685175</v>
+      </c>
+      <c r="S28">
+        <v>0.00091267205195981</v>
+      </c>
+      <c r="T28">
+        <v>0.001129391001221038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.240679</v>
+      </c>
+      <c r="I29">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J29">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.527315</v>
+      </c>
+      <c r="N29">
+        <v>21.05463</v>
+      </c>
+      <c r="O29">
+        <v>0.09209936262402908</v>
+      </c>
+      <c r="P29">
+        <v>0.07195551268747499</v>
+      </c>
+      <c r="Q29">
+        <v>0.8445678822949999</v>
+      </c>
+      <c r="R29">
+        <v>5.06740729377</v>
+      </c>
+      <c r="S29">
+        <v>0.000743685758465149</v>
+      </c>
+      <c r="T29">
+        <v>0.0006135186613440622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.487268</v>
-      </c>
-      <c r="H25">
-        <v>1.461804</v>
-      </c>
-      <c r="I25">
-        <v>0.04352166345308978</v>
-      </c>
-      <c r="J25">
-        <v>0.04694211854808148</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>14.32600733333333</v>
-      </c>
-      <c r="N25">
-        <v>42.978022</v>
-      </c>
-      <c r="O25">
-        <v>0.09082196088386704</v>
-      </c>
-      <c r="P25">
-        <v>0.1064993646046676</v>
-      </c>
-      <c r="Q25">
-        <v>6.980604941298665</v>
-      </c>
-      <c r="R25">
-        <v>62.82544447168799</v>
-      </c>
-      <c r="S25">
-        <v>0.003952722815737345</v>
-      </c>
-      <c r="T25">
-        <v>0.004999305798567659</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.240679</v>
+      </c>
+      <c r="I30">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J30">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.217959</v>
+      </c>
+      <c r="N30">
+        <v>24.653877</v>
+      </c>
+      <c r="O30">
+        <v>0.07189570996691971</v>
+      </c>
+      <c r="P30">
+        <v>0.0842561640489027</v>
+      </c>
+      <c r="Q30">
+        <v>0.6592967180536666</v>
+      </c>
+      <c r="R30">
+        <v>5.933670462483001</v>
+      </c>
+      <c r="S30">
+        <v>0.0005805449036103221</v>
+      </c>
+      <c r="T30">
+        <v>0.0007183984526909836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.08022633333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.240679</v>
+      </c>
+      <c r="I31">
+        <v>0.008074819817169055</v>
+      </c>
+      <c r="J31">
+        <v>0.008526360780844729</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>27.10372466666666</v>
+      </c>
+      <c r="N31">
+        <v>81.31117399999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2371198892155478</v>
+      </c>
+      <c r="P31">
+        <v>0.2778860142586446</v>
+      </c>
+      <c r="Q31">
+        <v>2.174432449682889</v>
+      </c>
+      <c r="R31">
+        <v>19.569892047146</v>
+      </c>
+      <c r="S31">
+        <v>0.001914700380482637</v>
+      </c>
+      <c r="T31">
+        <v>0.002369356413520167</v>
       </c>
     </row>
   </sheetData>
